--- a/results/Fishers_comparison.xlsx
+++ b/results/Fishers_comparison.xlsx
@@ -655,10 +655,16 @@
         </is>
       </c>
       <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
+      <c r="C4" s="14" t="n">
+        <v>6.702587661638395</v>
+      </c>
       <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
+      <c r="E4" s="14" t="n">
+        <v>4.636705780895966</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>4.625907706500569</v>
+      </c>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="12" t="inlineStr">
         <is>
@@ -666,10 +672,16 @@
         </is>
       </c>
       <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
+      <c r="J4" s="14" t="n">
+        <v>12.73636974912341</v>
+      </c>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
+      <c r="L4" s="14" t="n">
+        <v>7.603836555557291</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>3.512831059893412</v>
+      </c>
       <c r="N4" s="13" t="n"/>
       <c r="O4" s="13" t="n"/>
       <c r="P4" s="13" t="n"/>
@@ -688,11 +700,11 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n"/>
+      <c r="B5" s="14" t="n">
+        <v>6.702587661638395</v>
+      </c>
       <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n">
-        <v>37.69534568313794</v>
-      </c>
+      <c r="D5" s="14" t="n"/>
       <c r="E5" s="14" t="n">
         <v>8.175746486316333</v>
       </c>
@@ -705,11 +717,11 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I5" s="14" t="n"/>
+      <c r="I5" s="14" t="n">
+        <v>12.73636974912341</v>
+      </c>
       <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n">
-        <v>27.35240310756595</v>
-      </c>
+      <c r="K5" s="14" t="n"/>
       <c r="L5" s="14" t="n">
         <v>12.20235899767827</v>
       </c>
@@ -735,16 +747,10 @@
         </is>
       </c>
       <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n">
-        <v>37.69534568313794</v>
-      </c>
+      <c r="C6" s="14" t="n"/>
       <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n">
-        <v>44.42796213812432</v>
-      </c>
-      <c r="F6" s="14" t="n">
-        <v>44.43671318708289</v>
-      </c>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14" t="n"/>
       <c r="G6" s="13" t="n"/>
       <c r="H6" s="12" t="inlineStr">
         <is>
@@ -752,16 +758,10 @@
         </is>
       </c>
       <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n">
-        <v>27.35240310756595</v>
-      </c>
+      <c r="J6" s="14" t="n"/>
       <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n">
-        <v>21.43677342327685</v>
-      </c>
-      <c r="M6" s="14" t="n">
-        <v>27.3381798969715</v>
-      </c>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
       <c r="N6" s="13" t="n"/>
       <c r="O6" s="13" t="n"/>
       <c r="P6" s="13" t="n"/>
@@ -780,13 +780,13 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n"/>
+      <c r="B7" s="14" t="n">
+        <v>4.636705780895966</v>
+      </c>
       <c r="C7" s="14" t="n">
         <v>8.175746486316333</v>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>44.42796213812432</v>
-      </c>
+      <c r="D7" s="14" t="n"/>
       <c r="E7" s="14" t="n"/>
       <c r="F7" s="14" t="n">
         <v>5.94077029614917</v>
@@ -797,13 +797,13 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I7" s="14" t="n"/>
+      <c r="I7" s="14" t="n">
+        <v>7.603836555557291</v>
+      </c>
       <c r="J7" s="14" t="n">
         <v>12.20235899767827</v>
       </c>
-      <c r="K7" s="14" t="n">
-        <v>21.43677342327685</v>
-      </c>
+      <c r="K7" s="14" t="n"/>
       <c r="L7" s="14" t="n"/>
       <c r="M7" s="14" t="n">
         <v>7.291035287537364</v>
@@ -826,13 +826,13 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n"/>
+      <c r="B8" s="14" t="n">
+        <v>4.625907706500569</v>
+      </c>
       <c r="C8" s="14" t="n">
         <v>8.900322565632528</v>
       </c>
-      <c r="D8" s="14" t="n">
-        <v>44.43671318708289</v>
-      </c>
+      <c r="D8" s="14" t="n"/>
       <c r="E8" s="14" t="n">
         <v>5.94077029614917</v>
       </c>
@@ -842,13 +842,13 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I8" s="14" t="n"/>
+      <c r="I8" s="14" t="n">
+        <v>3.512831059893412</v>
+      </c>
       <c r="J8" s="14" t="n">
         <v>14.44778453859989</v>
       </c>
-      <c r="K8" s="14" t="n">
-        <v>27.3381798969715</v>
-      </c>
+      <c r="K8" s="14" t="n"/>
       <c r="L8" s="14" t="n">
         <v>7.291035287537364</v>
       </c>
@@ -959,20 +959,32 @@
         </is>
       </c>
       <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
+      <c r="C14" s="14" t="n">
+        <v>6.702587661634703</v>
+      </c>
       <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
+      <c r="E14" s="14" t="n">
+        <v>3.064577120307865</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>4.625907706499998</v>
+      </c>
       <c r="H14" s="12" t="inlineStr">
         <is>
           <t>Class Ext</t>
         </is>
       </c>
       <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
+      <c r="J14" s="14" t="n">
+        <v>0.003840339157535826</v>
+      </c>
       <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
+      <c r="L14" s="14" t="n">
+        <v>0.01104164075093184</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>0.00674882071957496</v>
+      </c>
     </row>
     <row r="15" ht="15.85" customHeight="1" s="10">
       <c r="A15" s="12" t="inlineStr">
@@ -980,11 +992,11 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B15" s="14" t="n"/>
+      <c r="B15" s="14" t="n">
+        <v>6.702587661634703</v>
+      </c>
       <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n">
-        <v>37.6953456831375</v>
-      </c>
+      <c r="D15" s="14" t="n"/>
       <c r="E15" s="14" t="n">
         <v>8.17574648631863</v>
       </c>
@@ -996,16 +1008,16 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I15" s="14" t="n"/>
+      <c r="I15" s="14" t="n">
+        <v>0.003840339157535826</v>
+      </c>
       <c r="J15" s="14" t="n"/>
-      <c r="K15" s="14" t="n">
-        <v>2.180872377385433</v>
-      </c>
+      <c r="K15" s="14" t="n"/>
       <c r="L15" s="14" t="n">
-        <v>0.01270619938851229</v>
+        <v>0.0127061993898018</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0.008675483030280508</v>
+        <v>0.00867548303028051</v>
       </c>
     </row>
     <row r="16" ht="15.85" customHeight="1" s="10">
@@ -1015,32 +1027,20 @@
         </is>
       </c>
       <c r="B16" s="14" t="n"/>
-      <c r="C16" s="14" t="n">
-        <v>37.6953456831375</v>
-      </c>
+      <c r="C16" s="14" t="n"/>
       <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n">
-        <v>44.42796213812394</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>44.4367131870813</v>
-      </c>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
       <c r="H16" s="12" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
       <c r="I16" s="14" t="n"/>
-      <c r="J16" s="14" t="n">
-        <v>2.180872377385433</v>
-      </c>
+      <c r="J16" s="14" t="n"/>
       <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n">
-        <v>2.193228677444276</v>
-      </c>
-      <c r="M16" s="14" t="n">
-        <v>2.188910102912045</v>
-      </c>
+      <c r="L16" s="14" t="n"/>
+      <c r="M16" s="14" t="n"/>
     </row>
     <row r="17" ht="15.85" customHeight="1" s="10">
       <c r="A17" s="12" t="inlineStr">
@@ -1048,13 +1048,13 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B17" s="14" t="n"/>
+      <c r="B17" s="14" t="n">
+        <v>3.064577120307865</v>
+      </c>
       <c r="C17" s="14" t="n">
         <v>8.17574648631863</v>
       </c>
-      <c r="D17" s="14" t="n">
-        <v>44.42796213812394</v>
-      </c>
+      <c r="D17" s="14" t="n"/>
       <c r="E17" s="14" t="n"/>
       <c r="F17" s="14" t="n">
         <v>2.044343916251494</v>
@@ -1064,16 +1064,16 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I17" s="14" t="n"/>
+      <c r="I17" s="14" t="n">
+        <v>0.01104164075093184</v>
+      </c>
       <c r="J17" s="14" t="n">
-        <v>0.01270619938851229</v>
-      </c>
-      <c r="K17" s="14" t="n">
-        <v>2.193228677444276</v>
-      </c>
+        <v>0.0127061993898018</v>
+      </c>
+      <c r="K17" s="14" t="n"/>
       <c r="L17" s="14" t="n"/>
       <c r="M17" s="14" t="n">
-        <v>0.004320648779562816</v>
+        <v>0.004320648780680311</v>
       </c>
     </row>
     <row r="18" ht="15.85" customHeight="1" s="10">
@@ -1082,13 +1082,13 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B18" s="14" t="n"/>
+      <c r="B18" s="14" t="n">
+        <v>4.625907706499998</v>
+      </c>
       <c r="C18" s="14" t="n">
         <v>8.900322565631178</v>
       </c>
-      <c r="D18" s="14" t="n">
-        <v>44.4367131870813</v>
-      </c>
+      <c r="D18" s="14" t="n"/>
       <c r="E18" s="14" t="n">
         <v>2.044343916251494</v>
       </c>
@@ -1098,15 +1098,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I18" s="14" t="n"/>
+      <c r="I18" s="14" t="n">
+        <v>0.00674882071957496</v>
+      </c>
       <c r="J18" s="14" t="n">
-        <v>0.008675483030280508</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v>2.188910102912045</v>
-      </c>
+        <v>0.00867548303028051</v>
+      </c>
+      <c r="K18" s="14" t="n"/>
       <c r="L18" s="14" t="n">
-        <v>0.004320648779562816</v>
+        <v>0.004320648780680311</v>
       </c>
       <c r="M18" s="14" t="n"/>
     </row>
@@ -1299,10 +1299,16 @@
         </is>
       </c>
       <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
+      <c r="C4" s="14" t="n">
+        <v>7.310757266521852</v>
+      </c>
       <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
+      <c r="E4" s="14" t="n">
+        <v>5.22874030142393</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>6.709728562183838</v>
+      </c>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="12" t="inlineStr">
         <is>
@@ -1310,10 +1316,16 @@
         </is>
       </c>
       <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
+      <c r="J4" s="14" t="n">
+        <v>11.94800002044381</v>
+      </c>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
+      <c r="L4" s="14" t="n">
+        <v>4.215241409251451</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>5.308148565427468</v>
+      </c>
       <c r="N4" s="13" t="n"/>
       <c r="O4" s="13" t="n"/>
       <c r="P4" s="13" t="n"/>
@@ -1332,7 +1344,9 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n"/>
+      <c r="B5" s="14" t="n">
+        <v>7.310757266521852</v>
+      </c>
       <c r="C5" s="14" t="n"/>
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="14" t="n">
@@ -1347,7 +1361,9 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I5" s="14" t="n"/>
+      <c r="I5" s="14" t="n">
+        <v>11.94800002044381</v>
+      </c>
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="14" t="n"/>
       <c r="L5" s="14" t="n">
@@ -1408,7 +1424,9 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n"/>
+      <c r="B7" s="14" t="n">
+        <v>5.22874030142393</v>
+      </c>
       <c r="C7" s="14" t="n">
         <v>9.140923247327487</v>
       </c>
@@ -1423,7 +1441,9 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I7" s="14" t="n"/>
+      <c r="I7" s="14" t="n">
+        <v>4.215241409251451</v>
+      </c>
       <c r="J7" s="14" t="n">
         <v>12.16857868516982</v>
       </c>
@@ -1450,7 +1470,9 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n"/>
+      <c r="B8" s="14" t="n">
+        <v>6.709728562183838</v>
+      </c>
       <c r="C8" s="14" t="n">
         <v>7.9047174471529</v>
       </c>
@@ -1464,7 +1486,9 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I8" s="14" t="n"/>
+      <c r="I8" s="14" t="n">
+        <v>5.308148565427468</v>
+      </c>
       <c r="J8" s="14" t="n">
         <v>12.31448006760029</v>
       </c>
@@ -1579,20 +1603,32 @@
         </is>
       </c>
       <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
+      <c r="C14" s="14" t="n">
+        <v>7.310757266520421</v>
+      </c>
       <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
+      <c r="E14" s="14" t="n">
+        <v>5.228740301424898</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>6.709728562183957</v>
+      </c>
       <c r="H14" s="12" t="inlineStr">
         <is>
           <t>Class Ext</t>
         </is>
       </c>
       <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
+      <c r="J14" s="14" t="n">
+        <v>0.003639780601064062</v>
+      </c>
       <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
+      <c r="L14" s="14" t="n">
+        <v>0.008958692867225088</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>0.004305318928352894</v>
+      </c>
     </row>
     <row r="15" ht="15.85" customHeight="1" s="10">
       <c r="A15" s="12" t="inlineStr">
@@ -1600,7 +1636,9 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B15" s="14" t="n"/>
+      <c r="B15" s="14" t="n">
+        <v>7.310757266520421</v>
+      </c>
       <c r="C15" s="14" t="n"/>
       <c r="D15" s="14" t="n"/>
       <c r="E15" s="14" t="n">
@@ -1614,14 +1652,16 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I15" s="14" t="n"/>
+      <c r="I15" s="14" t="n">
+        <v>0.003639780601064062</v>
+      </c>
       <c r="J15" s="14" t="n"/>
       <c r="K15" s="14" t="n"/>
       <c r="L15" s="14" t="n">
-        <v>0.006610573638084757</v>
+        <v>0.006610573638238375</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0.004058158233665959</v>
+        <v>0.00405815823366596</v>
       </c>
     </row>
     <row r="16" ht="15.85" customHeight="1" s="10">
@@ -1652,7 +1692,9 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B17" s="14" t="n"/>
+      <c r="B17" s="14" t="n">
+        <v>5.228740301424898</v>
+      </c>
       <c r="C17" s="14" t="n">
         <v>9.140923247326208</v>
       </c>
@@ -1666,14 +1708,16 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I17" s="14" t="n"/>
+      <c r="I17" s="14" t="n">
+        <v>0.008958692867225088</v>
+      </c>
       <c r="J17" s="14" t="n">
-        <v>0.006610573638084757</v>
+        <v>0.006610573638238375</v>
       </c>
       <c r="K17" s="14" t="n"/>
       <c r="L17" s="14" t="n"/>
       <c r="M17" s="14" t="n">
-        <v>0.00502169697008938</v>
+        <v>0.005021696969503706</v>
       </c>
     </row>
     <row r="18" ht="15.85" customHeight="1" s="10">
@@ -1682,7 +1726,9 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B18" s="14" t="n"/>
+      <c r="B18" s="14" t="n">
+        <v>6.709728562183957</v>
+      </c>
       <c r="C18" s="14" t="n">
         <v>7.904717447152254</v>
       </c>
@@ -1696,13 +1742,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I18" s="14" t="n"/>
+      <c r="I18" s="14" t="n">
+        <v>0.004305318928352894</v>
+      </c>
       <c r="J18" s="14" t="n">
-        <v>0.004058158233665959</v>
+        <v>0.00405815823366596</v>
       </c>
       <c r="K18" s="14" t="n"/>
       <c r="L18" s="14" t="n">
-        <v>0.00502169697008938</v>
+        <v>0.005021696969503706</v>
       </c>
       <c r="M18" s="14" t="n"/>
     </row>
@@ -1895,10 +1943,16 @@
         </is>
       </c>
       <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
+      <c r="C4" s="14" t="n">
+        <v>0.1260892476037421</v>
+      </c>
       <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
+      <c r="E4" s="14" t="n">
+        <v>7.134291655235655</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>5.120587670741034</v>
+      </c>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="12" t="inlineStr">
         <is>
@@ -1906,10 +1960,16 @@
         </is>
       </c>
       <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
+      <c r="J4" s="14" t="n">
+        <v>0.1563233264619685</v>
+      </c>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
+      <c r="L4" s="14" t="n">
+        <v>5.522300575517179</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>4.15780447304015</v>
+      </c>
       <c r="N4" s="13" t="n"/>
       <c r="O4" s="13" t="n"/>
       <c r="P4" s="13" t="n"/>
@@ -1928,11 +1988,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n"/>
+      <c r="B5" s="14" t="n">
+        <v>0.1260892476037421</v>
+      </c>
       <c r="C5" s="14" t="n"/>
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="14" t="n">
-        <v>7.253829992163499</v>
+        <v>7.253829992164131</v>
       </c>
       <c r="F5" s="14" t="n">
         <v>5.240425409353439</v>
@@ -1943,11 +2005,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I5" s="14" t="n"/>
+      <c r="I5" s="14" t="n">
+        <v>0.1563233264619685</v>
+      </c>
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="14" t="n"/>
       <c r="L5" s="14" t="n">
-        <v>5.52723824518637</v>
+        <v>5.527238245186248</v>
       </c>
       <c r="M5" s="14" t="n">
         <v>4.125629269331752</v>
@@ -2004,14 +2068,16 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n"/>
+      <c r="B7" s="14" t="n">
+        <v>7.134291655235655</v>
+      </c>
       <c r="C7" s="14" t="n">
-        <v>7.253829992163499</v>
+        <v>7.253829992164131</v>
       </c>
       <c r="D7" s="14" t="n"/>
       <c r="E7" s="14" t="n"/>
       <c r="F7" s="14" t="n">
-        <v>2.021087373571296</v>
+        <v>2.02108737357193</v>
       </c>
       <c r="G7" s="13" t="n"/>
       <c r="H7" s="12" t="inlineStr">
@@ -2019,14 +2085,16 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I7" s="14" t="n"/>
+      <c r="I7" s="14" t="n">
+        <v>5.522300575517179</v>
+      </c>
       <c r="J7" s="14" t="n">
-        <v>5.52723824518637</v>
+        <v>5.527238245186248</v>
       </c>
       <c r="K7" s="14" t="n"/>
       <c r="L7" s="14" t="n"/>
       <c r="M7" s="14" t="n">
-        <v>1.458122583252418</v>
+        <v>1.458122583252295</v>
       </c>
       <c r="N7" s="13" t="n"/>
       <c r="O7" s="13" t="n"/>
@@ -2046,13 +2114,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n"/>
+      <c r="B8" s="14" t="n">
+        <v>5.120587670741034</v>
+      </c>
       <c r="C8" s="14" t="n">
         <v>5.240425409353439</v>
       </c>
       <c r="D8" s="14" t="n"/>
       <c r="E8" s="14" t="n">
-        <v>2.021087373571296</v>
+        <v>2.02108737357193</v>
       </c>
       <c r="F8" s="14" t="n"/>
       <c r="H8" s="12" t="inlineStr">
@@ -2060,13 +2130,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I8" s="14" t="n"/>
+      <c r="I8" s="14" t="n">
+        <v>4.15780447304015</v>
+      </c>
       <c r="J8" s="14" t="n">
         <v>4.125629269331752</v>
       </c>
       <c r="K8" s="14" t="n"/>
       <c r="L8" s="14" t="n">
-        <v>1.458122583252418</v>
+        <v>1.458122583252295</v>
       </c>
       <c r="M8" s="14" t="n"/>
     </row>
@@ -2175,20 +2247,32 @@
         </is>
       </c>
       <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
+      <c r="C14" s="14" t="n">
+        <v>0.1260892476133076</v>
+      </c>
       <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
+      <c r="E14" s="14" t="n">
+        <v>7.134291655237836</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>5.120587670741373</v>
+      </c>
       <c r="H14" s="12" t="inlineStr">
         <is>
           <t>Class Ext</t>
         </is>
       </c>
       <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
+      <c r="J14" s="14" t="n">
+        <v>0.00848672955002633</v>
+      </c>
       <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
+      <c r="L14" s="14" t="n">
+        <v>0.007767929056267006</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>0.003091025988039682</v>
+      </c>
     </row>
     <row r="15" ht="15.85" customHeight="1" s="10">
       <c r="A15" s="12" t="inlineStr">
@@ -2196,11 +2280,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B15" s="14" t="n"/>
+      <c r="B15" s="14" t="n">
+        <v>0.1260892476133076</v>
+      </c>
       <c r="C15" s="14" t="n"/>
       <c r="D15" s="14" t="n"/>
       <c r="E15" s="14" t="n">
-        <v>7.253829992163453</v>
+        <v>7.253829992164627</v>
       </c>
       <c r="F15" s="14" t="n">
         <v>5.24042540935209</v>
@@ -2210,14 +2296,16 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I15" s="14" t="n"/>
+      <c r="I15" s="14" t="n">
+        <v>0.00848672955002633</v>
+      </c>
       <c r="J15" s="14" t="n"/>
       <c r="K15" s="14" t="n"/>
       <c r="L15" s="14" t="n">
         <v>0.005550704147419326</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0.007152568024310681</v>
+        <v>0.007152568024294599</v>
       </c>
     </row>
     <row r="16" ht="15.85" customHeight="1" s="10">
@@ -2248,28 +2336,32 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B17" s="14" t="n"/>
+      <c r="B17" s="14" t="n">
+        <v>7.134291655237836</v>
+      </c>
       <c r="C17" s="14" t="n">
-        <v>7.253829992163453</v>
+        <v>7.253829992164627</v>
       </c>
       <c r="D17" s="14" t="n"/>
       <c r="E17" s="14" t="n"/>
       <c r="F17" s="14" t="n">
-        <v>2.021087373572602</v>
+        <v>2.021087373573795</v>
       </c>
       <c r="H17" s="12" t="inlineStr">
         <is>
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I17" s="14" t="n"/>
+      <c r="I17" s="14" t="n">
+        <v>0.007767929056267006</v>
+      </c>
       <c r="J17" s="14" t="n">
         <v>0.005550704147419326</v>
       </c>
       <c r="K17" s="14" t="n"/>
       <c r="L17" s="14" t="n"/>
       <c r="M17" s="14" t="n">
-        <v>0.004676903079456975</v>
+        <v>0.00467690307947021</v>
       </c>
     </row>
     <row r="18" ht="15.85" customHeight="1" s="10">
@@ -2278,13 +2370,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B18" s="14" t="n"/>
+      <c r="B18" s="14" t="n">
+        <v>5.120587670741373</v>
+      </c>
       <c r="C18" s="14" t="n">
         <v>5.24042540935209</v>
       </c>
       <c r="D18" s="14" t="n"/>
       <c r="E18" s="14" t="n">
-        <v>2.021087373572602</v>
+        <v>2.021087373573795</v>
       </c>
       <c r="F18" s="14" t="n"/>
       <c r="H18" s="12" t="inlineStr">
@@ -2292,13 +2386,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I18" s="14" t="n"/>
+      <c r="I18" s="14" t="n">
+        <v>0.003091025988039682</v>
+      </c>
       <c r="J18" s="14" t="n">
-        <v>0.007152568024310681</v>
+        <v>0.007152568024294599</v>
       </c>
       <c r="K18" s="14" t="n"/>
       <c r="L18" s="14" t="n">
-        <v>0.004676903079456975</v>
+        <v>0.00467690307947021</v>
       </c>
       <c r="M18" s="14" t="n"/>
     </row>
@@ -2491,10 +2587,16 @@
         </is>
       </c>
       <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
+      <c r="C4" s="14" t="n">
+        <v>0.1960325236278792</v>
+      </c>
       <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
+      <c r="E4" s="14" t="n">
+        <v>8.315320575845931</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>6.955453994647875</v>
+      </c>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="12" t="inlineStr">
         <is>
@@ -2502,10 +2604,16 @@
         </is>
       </c>
       <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
+      <c r="J4" s="14" t="n">
+        <v>0.1592192438594063</v>
+      </c>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
+      <c r="L4" s="14" t="n">
+        <v>6.378798593697684</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>4.617108899446688</v>
+      </c>
       <c r="N4" s="13" t="n"/>
       <c r="O4" s="13" t="n"/>
       <c r="P4" s="13" t="n"/>
@@ -2524,11 +2632,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n"/>
+      <c r="B5" s="14" t="n">
+        <v>0.1960325236278792</v>
+      </c>
       <c r="C5" s="14" t="n"/>
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="14" t="n">
-        <v>8.328457270167128</v>
+        <v>8.328457270169185</v>
       </c>
       <c r="F5" s="14" t="n">
         <v>6.968618182534044</v>
@@ -2539,11 +2649,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I5" s="14" t="n"/>
+      <c r="I5" s="14" t="n">
+        <v>0.1592192438594063</v>
+      </c>
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="14" t="n"/>
       <c r="L5" s="14" t="n">
-        <v>6.448527114727931</v>
+        <v>6.448527114727994</v>
       </c>
       <c r="M5" s="14" t="n">
         <v>4.686973907799332</v>
@@ -2600,14 +2712,16 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n"/>
+      <c r="B7" s="14" t="n">
+        <v>8.315320575845931</v>
+      </c>
       <c r="C7" s="14" t="n">
-        <v>8.328457270167128</v>
+        <v>8.328457270169185</v>
       </c>
       <c r="D7" s="14" t="n"/>
       <c r="E7" s="14" t="n"/>
       <c r="F7" s="14" t="n">
-        <v>1.367777371890752</v>
+        <v>1.36777737189282</v>
       </c>
       <c r="G7" s="13" t="n"/>
       <c r="H7" s="12" t="inlineStr">
@@ -2615,14 +2729,16 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I7" s="14" t="n"/>
+      <c r="I7" s="14" t="n">
+        <v>6.378798593697684</v>
+      </c>
       <c r="J7" s="14" t="n">
-        <v>6.448527114727931</v>
+        <v>6.448527114727994</v>
       </c>
       <c r="K7" s="14" t="n"/>
       <c r="L7" s="14" t="n"/>
       <c r="M7" s="14" t="n">
-        <v>1.766893479621576</v>
+        <v>1.766893479621618</v>
       </c>
       <c r="N7" s="13" t="n"/>
       <c r="O7" s="13" t="n"/>
@@ -2642,13 +2758,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n"/>
+      <c r="B8" s="14" t="n">
+        <v>6.955453994647875</v>
+      </c>
       <c r="C8" s="14" t="n">
         <v>6.968618182534044</v>
       </c>
       <c r="D8" s="14" t="n"/>
       <c r="E8" s="14" t="n">
-        <v>1.367777371890752</v>
+        <v>1.36777737189282</v>
       </c>
       <c r="F8" s="14" t="n"/>
       <c r="H8" s="12" t="inlineStr">
@@ -2656,13 +2774,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I8" s="14" t="n"/>
+      <c r="I8" s="14" t="n">
+        <v>4.617108899446688</v>
+      </c>
       <c r="J8" s="14" t="n">
         <v>4.686973907799332</v>
       </c>
       <c r="K8" s="14" t="n"/>
       <c r="L8" s="14" t="n">
-        <v>1.766893479621576</v>
+        <v>1.766893479621618</v>
       </c>
       <c r="M8" s="14" t="n"/>
     </row>
@@ -2771,20 +2891,32 @@
         </is>
       </c>
       <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
+      <c r="C14" s="14" t="n">
+        <v>0.1960325236528726</v>
+      </c>
       <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
+      <c r="E14" s="14" t="n">
+        <v>8.315320575844586</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>6.95545399464707</v>
+      </c>
       <c r="H14" s="12" t="inlineStr">
         <is>
           <t>Class Ext</t>
         </is>
       </c>
       <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
+      <c r="J14" s="14" t="n">
+        <v>0.009040747404680081</v>
+      </c>
       <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
+      <c r="L14" s="14" t="n">
+        <v>0.008786492097258913</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>0.003125337249988942</v>
+      </c>
     </row>
     <row r="15" ht="15.85" customHeight="1" s="10">
       <c r="A15" s="12" t="inlineStr">
@@ -2792,11 +2924,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="B15" s="14" t="n"/>
+      <c r="B15" s="14" t="n">
+        <v>0.1960325236528726</v>
+      </c>
       <c r="C15" s="14" t="n"/>
       <c r="D15" s="14" t="n"/>
       <c r="E15" s="14" t="n">
-        <v>8.32845727016791</v>
+        <v>8.328457270167929</v>
       </c>
       <c r="F15" s="14" t="n">
         <v>6.968618182533335</v>
@@ -2806,11 +2940,13 @@
           <t>Class Int</t>
         </is>
       </c>
-      <c r="I15" s="14" t="n"/>
+      <c r="I15" s="14" t="n">
+        <v>0.009040747404680081</v>
+      </c>
       <c r="J15" s="14" t="n"/>
       <c r="K15" s="14" t="n"/>
       <c r="L15" s="14" t="n">
-        <v>0.006458963167327947</v>
+        <v>0.006458963167327946</v>
       </c>
       <c r="M15" s="14" t="n">
         <v>0.007889892565258506</v>
@@ -2844,28 +2980,32 @@
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="B17" s="14" t="n"/>
+      <c r="B17" s="14" t="n">
+        <v>8.315320575844586</v>
+      </c>
       <c r="C17" s="14" t="n">
-        <v>8.32845727016791</v>
+        <v>8.328457270167929</v>
       </c>
       <c r="D17" s="14" t="n"/>
       <c r="E17" s="14" t="n"/>
       <c r="F17" s="14" t="n">
-        <v>1.367777371892272</v>
+        <v>1.367777371892271</v>
       </c>
       <c r="H17" s="12" t="inlineStr">
         <is>
           <t>Camb Ext</t>
         </is>
       </c>
-      <c r="I17" s="14" t="n"/>
+      <c r="I17" s="14" t="n">
+        <v>0.008786492097258913</v>
+      </c>
       <c r="J17" s="14" t="n">
-        <v>0.006458963167327947</v>
+        <v>0.006458963167327946</v>
       </c>
       <c r="K17" s="14" t="n"/>
       <c r="L17" s="14" t="n"/>
       <c r="M17" s="14" t="n">
-        <v>0.005661154862815924</v>
+        <v>0.005661154862793964</v>
       </c>
     </row>
     <row r="18" ht="15.85" customHeight="1" s="10">
@@ -2874,13 +3014,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="B18" s="14" t="n"/>
+      <c r="B18" s="14" t="n">
+        <v>6.95545399464707</v>
+      </c>
       <c r="C18" s="14" t="n">
         <v>6.968618182533335</v>
       </c>
       <c r="D18" s="14" t="n"/>
       <c r="E18" s="14" t="n">
-        <v>1.367777371892272</v>
+        <v>1.367777371892271</v>
       </c>
       <c r="F18" s="14" t="n"/>
       <c r="H18" s="12" t="inlineStr">
@@ -2888,13 +3030,15 @@
           <t>Camb Int</t>
         </is>
       </c>
-      <c r="I18" s="14" t="n"/>
+      <c r="I18" s="14" t="n">
+        <v>0.003125337249988942</v>
+      </c>
       <c r="J18" s="14" t="n">
         <v>0.007889892565258506</v>
       </c>
       <c r="K18" s="14" t="n"/>
       <c r="L18" s="14" t="n">
-        <v>0.005661154862815924</v>
+        <v>0.005661154862793964</v>
       </c>
       <c r="M18" s="14" t="n"/>
     </row>
